--- a/20_営業/07_会計/TE030/T_TE030_CFO_019_A16_02_電子帳簿AP仕入請求の情報系システム連携_OIC統合.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_019_A16_02_電子帳簿AP仕入請求の情報系システム連携_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\16_単体テスト実施\外部結合完了時\OIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)" sheetId="13" r:id="rId10"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)" sheetId="14" r:id="rId11"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ7)" sheetId="15" r:id="rId12"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId13"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId14"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ8)" sheetId="16" r:id="rId13"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId14"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
@@ -37,11 +38,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'テスト仕様_テスト結果(テスト・シナリオ7)'!$A$1:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'テスト仕様_テスト結果(テスト・シナリオ8)'!$A$1:$I$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="220">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1230,17 +1232,173 @@
   <si>
     <t>Issue化</t>
   </si>
+  <si>
+    <t>正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①、②左記の通り</t>
+    <rPh sb="3" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ8</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>XXCFO019A16_02を実行する。
+OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A16_02から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①XXCFO019A16_02から共通処理XXCCD001が実行され、正常終了する。
+②プロファイルオプション値テーブルが更新される。</t>
+    <rPh sb="17" eb="21">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>XXCFO019A16_02(電子帳簿AP仕入請求の情報系システム連携)</t>
+    <rPh sb="15" eb="19">
+      <t>デンシチョウボ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ジョウホウケイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(業務日付取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(猶予日数取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD001(前回処理日更新)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CFO_019_A16_02_電子帳簿AP仕入請求の情報系システム連携_OIC統合_エビデンス(シナリオ8).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ8</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{
+  "processId": 2317108
+}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1421,6 +1579,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1471,7 +1644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -2109,6 +2282,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2122,7 +2306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2493,6 +2677,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2537,6 +2739,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -7899,6 +8102,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30510480"/>
+          <a:ext cx="6939915" cy="2606040"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33207960"/>
+          <a:ext cx="6939915" cy="2806065"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29687520"/>
+          <a:ext cx="3303270" cy="459105"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -8243,7 +9171,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -8253,7 +9181,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -8261,7 +9189,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -8270,7 +9198,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -8279,67 +9207,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="134" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="135" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="135" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="135" t="s">
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -8347,11 +9275,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -8359,23 +9287,23 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>73</v>
       </c>
@@ -8383,25 +9311,25 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -8413,7 +9341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -8451,7 +9379,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -8464,7 +9392,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -8475,35 +9403,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -8529,7 +9457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>145</v>
@@ -8544,7 +9472,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="123" t="s">
         <v>146</v>
       </c>
@@ -8570,7 +9498,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="123"/>
       <c r="C13" s="119"/>
       <c r="D13" s="119"/>
@@ -8590,7 +9518,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="123"/>
       <c r="C14" s="124"/>
       <c r="D14" s="119"/>
@@ -8610,7 +9538,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="123"/>
       <c r="C15" s="46"/>
       <c r="D15" s="119"/>
@@ -8630,7 +9558,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="123"/>
       <c r="C16" s="124"/>
@@ -8651,7 +9579,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="123"/>
       <c r="C17" s="46"/>
@@ -8672,7 +9600,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="73.5">
+    <row r="18" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B18" s="123" t="s">
         <v>150</v>
       </c>
@@ -8698,7 +9626,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63">
+    <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B19" s="123"/>
       <c r="C19" s="46"/>
       <c r="D19" s="119"/>
@@ -8718,7 +9646,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="94.5">
+    <row r="20" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B20" s="123"/>
       <c r="C20" s="46"/>
       <c r="D20" s="119"/>
@@ -8738,7 +9666,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="52.5">
+    <row r="21" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B21" s="123"/>
       <c r="C21" s="46"/>
       <c r="D21" s="119"/>
@@ -8758,7 +9686,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="105">
+    <row r="22" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B22" s="123"/>
       <c r="C22" s="46"/>
       <c r="D22" s="119"/>
@@ -8778,7 +9706,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="73.5">
+    <row r="23" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B23" s="123"/>
       <c r="C23" s="46"/>
       <c r="D23" s="119"/>
@@ -8798,7 +9726,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="63">
+    <row r="24" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B24" s="123"/>
       <c r="C24" s="46"/>
       <c r="D24" s="119"/>
@@ -8818,7 +9746,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -8828,7 +9756,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -8838,7 +9766,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -8848,7 +9776,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -8858,7 +9786,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -8868,7 +9796,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -8878,7 +9806,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -8888,7 +9816,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -8898,7 +9826,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>49</v>
       </c>
@@ -8908,7 +9836,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -8918,7 +9846,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -8928,7 +9856,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -8938,7 +9866,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -8948,7 +9876,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -8958,7 +9886,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -8976,7 +9904,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8994,7 +9922,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -9007,7 +9935,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -9018,35 +9946,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -9072,7 +10000,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>154</v>
@@ -9087,7 +10015,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>155</v>
       </c>
@@ -9113,7 +10041,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -9133,7 +10061,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -9153,7 +10081,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -9173,7 +10101,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -9194,7 +10122,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
@@ -9215,7 +10143,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="123"/>
       <c r="C18" s="46"/>
       <c r="D18" s="119"/>
@@ -9225,7 +10153,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="123"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -9235,7 +10163,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -9245,7 +10173,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -9255,7 +10183,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -9265,7 +10193,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -9275,7 +10203,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="117"/>
       <c r="D24" s="46"/>
@@ -9285,7 +10213,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -9295,7 +10223,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -9305,7 +10233,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -9315,7 +10243,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -9325,7 +10253,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -9335,7 +10263,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -9345,7 +10273,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -9355,7 +10283,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -9365,7 +10293,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>49</v>
       </c>
@@ -9375,7 +10303,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -9385,7 +10313,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -9395,7 +10323,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -9405,7 +10333,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -9415,7 +10343,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -9425,7 +10353,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -9443,7 +10371,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9461,7 +10389,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -9474,7 +10402,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -9485,35 +10413,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -9539,7 +10467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>157</v>
@@ -9554,7 +10482,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>158</v>
       </c>
@@ -9580,7 +10508,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -9600,7 +10528,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -9620,7 +10548,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -9640,7 +10568,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -9661,7 +10589,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
@@ -9682,7 +10610,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="123"/>
       <c r="C18" s="46"/>
       <c r="D18" s="119"/>
@@ -9692,7 +10620,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="123"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -9702,7 +10630,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -9712,7 +10640,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -9722,7 +10650,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -9732,7 +10660,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -9742,7 +10670,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="117"/>
       <c r="D24" s="46"/>
@@ -9752,7 +10680,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -9762,7 +10690,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -9772,7 +10700,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -9782,7 +10710,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -9792,7 +10720,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -9802,7 +10730,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -9812,7 +10740,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -9822,7 +10750,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -9832,7 +10760,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>49</v>
       </c>
@@ -9842,7 +10770,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -9852,7 +10780,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -9862,7 +10790,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -9872,7 +10800,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -9882,7 +10810,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -9892,7 +10820,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -9910,7 +10838,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9918,12 +10846,332 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="78">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="134" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="134" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="117"/>
+      <c r="D13" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="134" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="72"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="77"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G15">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
@@ -9933,7 +11181,7 @@
     <col min="9" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -9943,51 +11191,51 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="139" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="145" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="137" t="s">
+      <c r="H5" s="143" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="140"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="146"/>
       <c r="C6" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="138"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="148"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="144"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="66" t="s">
         <v>71</v>
       </c>
@@ -9998,7 +11246,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="67"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="68"/>
       <c r="C8" s="42"/>
       <c r="D8" s="44"/>
@@ -10007,7 +11255,7 @@
       <c r="G8" s="48"/>
       <c r="H8" s="69"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="68"/>
       <c r="C9" s="46"/>
       <c r="D9" s="42"/>
@@ -10016,7 +11264,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="68"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -10025,7 +11273,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="69"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="68"/>
       <c r="C11" s="42"/>
       <c r="D11" s="46"/>
@@ -10034,7 +11282,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="68"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -10043,7 +11291,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="70"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="68"/>
       <c r="C13" s="42"/>
       <c r="D13" s="54"/>
@@ -10052,7 +11300,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="68"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -10061,7 +11309,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="68"/>
       <c r="C15" s="42"/>
       <c r="D15" s="54"/>
@@ -10070,7 +11318,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="68"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -10079,7 +11327,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="68"/>
       <c r="C17" s="42"/>
       <c r="D17" s="54"/>
@@ -10088,7 +11336,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="68"/>
       <c r="C18" s="46"/>
       <c r="D18" s="42"/>
@@ -10097,7 +11345,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="69"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="68"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46"/>
@@ -10106,7 +11354,7 @@
       <c r="G19" s="48"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="46"/>
       <c r="D20" s="42"/>
@@ -10115,7 +11363,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="69"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="42"/>
       <c r="D21" s="46"/>
@@ -10124,7 +11372,7 @@
       <c r="G21" s="48"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -10133,7 +11381,7 @@
       <c r="G22" s="52"/>
       <c r="H22" s="69"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="66"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -10142,7 +11390,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="69"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -10172,14 +11420,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -10190,7 +11438,7 @@
     <col min="8" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -10199,25 +11447,25 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
       <c r="B7" s="110" t="s">
         <v>60</v>
@@ -10238,7 +11486,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -10247,7 +11495,7 @@
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -10256,23 +11504,23 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="110" t="s">
         <v>60</v>
@@ -10293,7 +11541,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
       <c r="B15" s="64"/>
       <c r="C15" s="39"/>
@@ -10302,7 +11550,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35"/>
       <c r="B16" s="64"/>
       <c r="C16" s="39"/>
@@ -10311,7 +11559,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35"/>
       <c r="B17" s="64"/>
       <c r="C17" s="39"/>
@@ -10320,7 +11568,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -10344,20 +11592,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -10368,29 +11616,29 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="99" t="s">
         <v>10</v>
       </c>
@@ -10408,7 +11656,7 @@
       <c r="H7" s="101"/>
       <c r="I7" s="102"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="91">
         <v>44936</v>
       </c>
@@ -10426,7 +11674,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="92"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="91">
         <v>44984</v>
       </c>
@@ -10444,27 +11692,45 @@
       <c r="H9" s="23"/>
       <c r="I9" s="92"/>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="136">
+        <v>45561</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="92"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -10485,13 +11751,13 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -10506,156 +11772,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="27" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="30"/>
     </row>
   </sheetData>
@@ -10673,13 +11939,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="82"/>
     <col min="4" max="4" width="22.125" style="82" customWidth="1"/>
@@ -10688,7 +11955,7 @@
     <col min="7" max="16384" width="2.75" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -10696,7 +11963,7 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="80" t="s">
         <v>72</v>
       </c>
@@ -10706,7 +11973,7 @@
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="83"/>
@@ -10714,7 +11981,7 @@
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
     </row>
-    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -10724,7 +11991,7 @@
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
     </row>
-    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -10732,7 +11999,7 @@
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="1:6" s="85" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="85" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
@@ -10744,7 +12011,7 @@
       </c>
       <c r="F6" s="84"/>
     </row>
-    <row r="7" spans="1:6" s="85" customFormat="1">
+    <row r="7" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -10756,7 +12023,7 @@
       </c>
       <c r="F7" s="84"/>
     </row>
-    <row r="8" spans="1:6" s="85" customFormat="1">
+    <row r="8" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
@@ -10768,7 +12035,7 @@
       </c>
       <c r="F8" s="84"/>
     </row>
-    <row r="9" spans="1:6" s="85" customFormat="1">
+    <row r="9" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
@@ -10780,7 +12047,7 @@
       </c>
       <c r="F9" s="84"/>
     </row>
-    <row r="10" spans="1:6" s="85" customFormat="1">
+    <row r="10" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
@@ -10792,7 +12059,7 @@
       </c>
       <c r="F10" s="84"/>
     </row>
-    <row r="11" spans="1:6" s="85" customFormat="1">
+    <row r="11" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
@@ -10804,7 +12071,7 @@
       </c>
       <c r="F11" s="84"/>
     </row>
-    <row r="12" spans="1:6" s="85" customFormat="1">
+    <row r="12" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -10816,7 +12083,7 @@
       </c>
       <c r="F12" s="84"/>
     </row>
-    <row r="13" spans="1:6" s="85" customFormat="1">
+    <row r="13" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -10828,15 +12095,19 @@
       </c>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="14" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
+      <c r="D14" s="121" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="135" t="s">
+        <v>214</v>
+      </c>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
@@ -10844,7 +12115,7 @@
       <c r="E15" s="87"/>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -10852,7 +12123,7 @@
       <c r="E16" s="87"/>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1">
+    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="88"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -10860,7 +12131,7 @@
       <c r="E17" s="90"/>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A18" s="84"/>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
@@ -10868,7 +12139,7 @@
       <c r="E18" s="88"/>
       <c r="F18" s="88"/>
     </row>
-    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A19" s="88"/>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
@@ -10886,9 +12157,10 @@
     <hyperlink ref="D10" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3) '!A1" display="シナリオ3"/>
     <hyperlink ref="D13" location="'テスト仕様_テスト結果(テスト・シナリオ7)'!A1" display="シナリオ7"/>
+    <hyperlink ref="D14" location="'テスト仕様_テスト結果(テスト・シナリオ8)'!A1" display="シナリオ8"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;8&amp;F&amp;R&amp;8XXX構築プロジェクト
 &lt;YYYY/MM/DD&gt;</oddHeader>
@@ -10905,7 +12177,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -10913,53 +12185,53 @@
     <col min="4" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6" customHeight="1">
+    <row r="1" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="127" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="136" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="136"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="142"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="128"/>
       <c r="C8" s="128"/>
     </row>
-    <row r="9" spans="1:4" s="116" customFormat="1">
+    <row r="9" spans="1:4" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="34" t="s">
         <v>104</v>
       </c>
       <c r="C9" s="27"/>
     </row>
-    <row r="10" spans="1:4" s="116" customFormat="1">
+    <row r="10" spans="1:4" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="27"/>
     </row>
-    <row r="11" spans="1:4" ht="14.25" thickBot="1">
+    <row r="11" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="129" t="s">
         <v>106</v>
       </c>
@@ -10967,7 +12239,7 @@
         <v>1237638</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" thickBot="1">
+    <row r="12" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="114" t="s">
         <v>77</v>
       </c>
@@ -10975,7 +12247,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21.75" thickBot="1">
+    <row r="13" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="120" t="s">
         <v>107</v>
       </c>
@@ -10983,20 +12255,20 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="14.25" thickBot="1">
+    <row r="17" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="129" t="s">
         <v>105</v>
       </c>
@@ -11004,7 +12276,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="14.25" thickBot="1">
+    <row r="18" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="114" t="s">
         <v>77</v>
       </c>
@@ -11012,7 +12284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="21.75" thickBot="1">
+    <row r="19" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="120" t="s">
         <v>109</v>
       </c>
@@ -11020,20 +12292,20 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="33"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="34" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="14.25" thickBot="1">
+    <row r="23" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="129" t="s">
         <v>112</v>
       </c>
@@ -11041,7 +12313,7 @@
         <v>1115595</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="14.25" thickBot="1">
+    <row r="24" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="114" t="s">
         <v>77</v>
       </c>
@@ -11049,7 +12321,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="21.75" thickBot="1">
+    <row r="25" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="120" t="s">
         <v>113</v>
       </c>
@@ -11057,24 +12329,24 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="130"/>
       <c r="C29" s="130"/>
     </row>
-    <row r="30" spans="2:3" ht="14.25" thickBot="1">
+    <row r="30" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="129" t="s">
         <v>116</v>
       </c>
@@ -11082,7 +12354,7 @@
         <v>1237645</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="14.25" thickBot="1">
+    <row r="31" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="114" t="s">
         <v>77</v>
       </c>
@@ -11090,7 +12362,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="21.75" thickBot="1">
+    <row r="32" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="120" t="s">
         <v>107</v>
       </c>
@@ -11098,25 +12370,25 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="129"/>
       <c r="C33" s="130"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="130"/>
       <c r="C36" s="130"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="129" t="s">
         <v>105</v>
       </c>
@@ -11124,7 +12396,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="14.25" thickBot="1">
+    <row r="38" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="129" t="s">
         <v>119</v>
       </c>
@@ -11132,7 +12404,7 @@
         <v>1237638</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="14.25" thickBot="1">
+    <row r="39" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="114" t="s">
         <v>77</v>
       </c>
@@ -11140,7 +12412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="21">
+    <row r="40" spans="2:3" ht="21" x14ac:dyDescent="0.15">
       <c r="B40" s="131" t="s">
         <v>113</v>
       </c>
@@ -11148,7 +12420,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="14.25" thickBot="1">
+    <row r="41" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="120" t="s">
         <v>120</v>
       </c>
@@ -11156,24 +12428,24 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" s="34"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" s="34" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" s="129"/>
       <c r="C45" s="133"/>
     </row>
-    <row r="46" spans="2:3" ht="14.25" thickBot="1">
+    <row r="46" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B46" s="129" t="s">
         <v>112</v>
       </c>
@@ -11181,7 +12453,7 @@
         <v>1237638</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="14.25" thickBot="1">
+    <row r="47" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B47" s="114" t="s">
         <v>77</v>
       </c>
@@ -11189,7 +12461,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="21.75" thickBot="1">
+    <row r="48" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="120" t="s">
         <v>109</v>
       </c>
@@ -11197,24 +12469,24 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" s="34" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B52" s="129"/>
       <c r="C52" s="133"/>
     </row>
-    <row r="53" spans="2:3" ht="14.25" thickBot="1">
+    <row r="53" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B53" s="129" t="s">
         <v>105</v>
       </c>
@@ -11222,7 +12494,7 @@
         <v>1237638</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="14.25" thickBot="1">
+    <row r="54" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B54" s="114" t="s">
         <v>77</v>
       </c>
@@ -11230,7 +12502,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="21.75" thickBot="1">
+    <row r="55" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B55" s="120" t="s">
         <v>113</v>
       </c>
@@ -11238,19 +12510,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
     </row>
@@ -11278,7 +12550,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -11291,7 +12563,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11302,35 +12574,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -11356,7 +12628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>125</v>
@@ -11371,7 +12643,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>127</v>
@@ -11398,7 +12670,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -11419,7 +12691,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="94.5">
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -11440,7 +12712,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -11460,7 +12732,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="105">
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -11480,7 +12752,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -11500,7 +12772,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63">
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -11520,7 +12792,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -11530,7 +12802,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -11540,7 +12812,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -11551,7 +12823,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -11562,7 +12834,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -11572,7 +12844,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -11583,7 +12855,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -11594,7 +12866,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -11604,7 +12876,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -11614,7 +12886,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -11624,7 +12896,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -11634,7 +12906,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -11644,7 +12916,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -11654,7 +12926,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="117"/>
       <c r="D32" s="46"/>
@@ -11664,7 +12936,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -11674,7 +12946,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -11684,7 +12956,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -11694,7 +12966,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="68"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -11704,7 +12976,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="72"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -11714,7 +12986,7 @@
       <c r="H37" s="47"/>
       <c r="I37" s="77"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -11724,7 +12996,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -11734,7 +13006,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="6" customHeight="1">
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -11744,7 +13016,7 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>49</v>
       </c>
@@ -11754,7 +13026,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -11764,7 +13036,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="126" t="s">
         <v>90</v>
       </c>
@@ -11776,7 +13048,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -11786,7 +13058,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -11796,7 +13068,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -11806,7 +13078,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -11824,7 +13096,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11842,7 +13114,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -11855,7 +13127,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11866,35 +13138,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -11920,7 +13192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>139</v>
@@ -11935,7 +13207,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>140</v>
@@ -11962,7 +13234,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -11983,7 +13255,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="84">
+    <row r="14" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -12004,7 +13276,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -12024,7 +13296,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="105">
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -12044,7 +13316,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -12064,7 +13336,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="42">
+    <row r="18" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -12084,7 +13356,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -12094,7 +13366,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -12104,7 +13376,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -12114,7 +13386,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -12124,7 +13396,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -12134,7 +13406,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -12145,7 +13417,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -12156,7 +13428,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -12166,7 +13438,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
@@ -12177,7 +13449,7 @@
       <c r="H27" s="57"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
@@ -12188,7 +13460,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -12198,7 +13470,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -12208,7 +13480,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -12218,7 +13490,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -12228,7 +13500,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -12238,7 +13510,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -12248,7 +13520,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="64"/>
       <c r="C35" s="117"/>
       <c r="D35" s="46"/>
@@ -12258,7 +13530,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="64"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -12268,7 +13540,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="68"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -12278,7 +13550,7 @@
       <c r="H37" s="46"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="68"/>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
@@ -12288,7 +13560,7 @@
       <c r="H38" s="46"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="68"/>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
@@ -12298,7 +13570,7 @@
       <c r="H39" s="46"/>
       <c r="I39" s="76"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25" thickBot="1">
+    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="72"/>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
@@ -12308,7 +13580,7 @@
       <c r="H40" s="47"/>
       <c r="I40" s="77"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -12318,7 +13590,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -12328,7 +13600,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9" ht="6" customHeight="1">
+    <row r="43" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -12338,7 +13610,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
     </row>
-    <row r="44" spans="1:9" ht="14.25">
+    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
         <v>49</v>
       </c>
@@ -12348,7 +13620,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -12358,7 +13630,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -12368,7 +13640,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -12378,7 +13650,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
@@ -12388,7 +13660,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
@@ -12398,7 +13670,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
@@ -12416,7 +13688,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12434,7 +13706,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12447,7 +13719,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -12458,35 +13730,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -12512,7 +13784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>142</v>
@@ -12527,7 +13799,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>143</v>
       </c>
@@ -12553,7 +13825,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -12573,7 +13845,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="84">
+    <row r="14" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="117"/>
       <c r="D14" s="46"/>
@@ -12593,7 +13865,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -12613,7 +13885,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="105">
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -12633,7 +13905,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -12653,7 +13925,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="42">
+    <row r="18" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -12674,7 +13946,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
@@ -12685,7 +13957,7 @@
       <c r="H19" s="57"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="119"/>
@@ -12695,7 +13967,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -12706,7 +13978,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -12717,7 +13989,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="119"/>
@@ -12727,7 +13999,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -12737,7 +14009,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -12747,7 +14019,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -12757,7 +14029,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -12767,7 +14039,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -12777,7 +14049,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="117"/>
       <c r="D29" s="46"/>
@@ -12787,7 +14059,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -12797,7 +14069,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -12807,7 +14079,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -12817,7 +14089,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -12827,7 +14099,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="72"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -12837,7 +14109,7 @@
       <c r="H34" s="47"/>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -12847,7 +14119,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -12857,7 +14129,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -12867,7 +14139,7 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>49</v>
       </c>
@@ -12877,7 +14149,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -12887,7 +14159,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -12897,7 +14169,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -12907,7 +14179,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -12917,7 +14189,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -12927,7 +14199,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -12945,7 +14217,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12963,7 +14235,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12976,7 +14248,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -12987,35 +14259,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -13041,7 +14313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="123" t="s">
         <v>134</v>
@@ -13056,7 +14328,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="123" t="s">
         <v>136</v>
       </c>
@@ -13082,7 +14354,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="123"/>
       <c r="C13" s="124"/>
       <c r="D13" s="119"/>
@@ -13102,7 +14374,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="94.5">
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B14" s="123"/>
       <c r="C14" s="46"/>
       <c r="D14" s="119"/>
@@ -13122,7 +14394,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="123"/>
       <c r="C15" s="124"/>
       <c r="D15" s="119"/>
@@ -13142,7 +14414,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="105">
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B16" s="123"/>
       <c r="C16" s="46"/>
       <c r="D16" s="119"/>
@@ -13162,7 +14434,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="94.5">
+    <row r="17" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B17" s="123"/>
       <c r="C17" s="124"/>
       <c r="D17" s="119"/>
@@ -13182,7 +14454,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63">
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B18" s="123"/>
       <c r="C18" s="46"/>
       <c r="D18" s="119"/>
@@ -13202,7 +14474,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="123"/>
       <c r="C19" s="46"/>
       <c r="D19" s="119"/>
@@ -13212,7 +14484,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="123"/>
       <c r="C20" s="46"/>
@@ -13223,7 +14495,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="123"/>
       <c r="C21" s="46"/>
@@ -13234,7 +14506,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="123"/>
       <c r="C22" s="46"/>
       <c r="D22" s="119"/>
@@ -13244,7 +14516,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="123"/>
       <c r="C23" s="46"/>
@@ -13255,7 +14527,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="123"/>
       <c r="C24" s="46"/>
@@ -13266,7 +14538,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="123"/>
       <c r="C25" s="46"/>
       <c r="D25" s="119"/>
@@ -13276,7 +14548,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="123"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -13286,7 +14558,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -13296,7 +14568,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -13306,7 +14578,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -13316,7 +14588,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -13326,7 +14598,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="117"/>
       <c r="D31" s="46"/>
@@ -13336,7 +14608,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -13346,7 +14618,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -13356,7 +14628,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="68"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -13366,7 +14638,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -13376,7 +14648,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1">
+    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="72"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -13386,7 +14658,7 @@
       <c r="H36" s="47"/>
       <c r="I36" s="77"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -13396,7 +14668,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -13406,7 +14678,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9" ht="6" customHeight="1">
+    <row r="39" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -13416,7 +14688,7 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25">
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>49</v>
       </c>
@@ -13426,7 +14698,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -13436,7 +14708,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -13446,7 +14718,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -13456,7 +14728,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -13466,7 +14738,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -13476,7 +14748,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -13494,7 +14766,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
